--- a/plan/0.시스템/15.NPC/npc설정 및 상호작용.xlsx
+++ b/plan/0.시스템/15.NPC/npc설정 및 상호작용.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="21120" yWindow="0" windowWidth="17280" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="NPC 설정 및 상호작용" sheetId="2" r:id="rId1"/>
@@ -514,15 +514,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>5024</xdr:rowOff>
+      <xdr:rowOff>30424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>223287</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>20087</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -545,7 +545,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="5034224"/>
+          <a:off x="8216900" y="5288224"/>
           <a:ext cx="1663700" cy="1818463"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -881,7 +881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -1040,7 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
